--- a/docs/DB tables.xlsx
+++ b/docs/DB tables.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\Team-Solidaster\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="19980" windowHeight="9600"/>
   </bookViews>
@@ -96,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +181,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,17 +478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -483,7 +501,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -501,7 +519,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -520,7 +538,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -541,7 +559,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -566,7 +584,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -585,7 +603,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -606,7 +624,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -631,7 +649,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -650,7 +668,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -673,7 +691,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -690,7 +708,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -711,7 +729,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -746,7 +764,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -754,7 +772,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -764,7 +782,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -784,7 +802,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -792,7 +810,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -802,7 +820,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -821,7 +839,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -829,7 +847,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
@@ -839,7 +857,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -865,24 +883,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
